--- a/Assignment3/dataset/en_conditions.xlsx
+++ b/Assignment3/dataset/en_conditions.xlsx
@@ -20,54 +20,612 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
-  <si>
-    <t xml:space="preserve">w_word1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">w_word2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">w_corrAns</t>
-  </si>
-  <si>
-    <t xml:space="preserve">w_category</t>
-  </si>
-  <si>
-    <t xml:space="preserve">whistle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">england</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="202">
+  <si>
+    <t xml:space="preserve">word1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">word2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">corrAns</t>
+  </si>
+  <si>
+    <t xml:space="preserve">category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">actress</t>
+  </si>
+  <si>
+    <t xml:space="preserve">actor</t>
   </si>
   <si>
     <t xml:space="preserve">right</t>
   </si>
   <si>
+    <t xml:space="preserve">subtraction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">addition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">continent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">africa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">explanation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">answer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">octopus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">arms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">arrow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mustache</t>
+  </si>
+  <si>
+    <t xml:space="preserve">beard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mug</t>
+  </si>
+  <si>
+    <t xml:space="preserve">beer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">disbelieve</t>
+  </si>
+  <si>
+    <t xml:space="preserve">believe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tricycle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bicycle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">magazine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">book</t>
+  </si>
+  <si>
+    <t xml:space="preserve">busy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bored</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cauliflower</t>
+  </si>
+  <si>
+    <t xml:space="preserve">broccoli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sister</t>
+  </si>
+  <si>
+    <t xml:space="preserve">brother</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tumor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cancer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rug</t>
+  </si>
+  <si>
+    <t xml:space="preserve">carpet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">blackboard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chalk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kitchen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cook</t>
+  </si>
+  <si>
+    <t xml:space="preserve">policeman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lobster</t>
+  </si>
+  <si>
+    <t xml:space="preserve">crab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">valuable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">devil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">disown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">atom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">capability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">attic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">perform</t>
+  </si>
+  <si>
+    <t xml:space="preserve">average</t>
+  </si>
+  <si>
+    <t xml:space="preserve">axe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adverb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">backpack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">suggest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ballet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">contract</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">awareness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">base</t>
+  </si>
+  <si>
+    <t xml:space="preserve">disallow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">beat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">quantity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">beautiful</t>
+  </si>
+  <si>
+    <t xml:space="preserve">entertain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">begin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fury</t>
+  </si>
+  <si>
+    <t xml:space="preserve">beginner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">anteater</t>
+  </si>
+  <si>
+    <t xml:space="preserve">belt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">seem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bitch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">region</t>
+  </si>
+  <si>
+    <t xml:space="preserve">blame</t>
+  </si>
+  <si>
+    <t xml:space="preserve">disagreement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">blanket</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cricket</t>
+  </si>
+  <si>
+    <t xml:space="preserve">blow</t>
+  </si>
+  <si>
     <t xml:space="preserve">ash</t>
   </si>
   <si>
-    <t xml:space="preserve">ashtray</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">crack</t>
+    <t xml:space="preserve">blue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inquire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">blush</t>
+  </si>
+  <si>
+    <t xml:space="preserve">poldcemps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uccipt</t>
   </si>
   <si>
     <t xml:space="preserve">left</t>
   </si>
   <si>
-    <t xml:space="preserve">sun</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cepy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mick</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lofy</t>
+    <t xml:space="preserve">ltbster</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lecter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">valuabzr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">additkos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dasewn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ufraca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">capmpiwity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nney</t>
+  </si>
+  <si>
+    <t xml:space="preserve">perigrm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unswir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ucter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">arks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">udvirb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prew</t>
+  </si>
+  <si>
+    <t xml:space="preserve">suggeyf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">biurd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">contreqt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bcer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">awbxenems</t>
+  </si>
+  <si>
+    <t xml:space="preserve">belvem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">displfow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pcycce</t>
+  </si>
+  <si>
+    <t xml:space="preserve">quantyta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">berid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">entehvain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bryccyli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">angeatec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hodker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">suem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">builde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rigaen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wuncir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dvsagceeieni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turpit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">crlceet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chulk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">incuire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gway</t>
+  </si>
+  <si>
+    <t xml:space="preserve">invent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ceok</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inventor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">leab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uneven</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dival</t>
+  </si>
+  <si>
+    <t xml:space="preserve">snuggle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">atnton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">saucer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uttac</t>
+  </si>
+  <si>
+    <t xml:space="preserve">antidote</t>
+  </si>
+  <si>
+    <t xml:space="preserve">averake</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adorable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bckpwck</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fgor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">harmful</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cownr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adventure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bnat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">beaufifsl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">corpse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bigan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mute</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bygknner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">separate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bext</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">blumi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cents</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rankep</t>
+  </si>
+  <si>
+    <t xml:space="preserve">finished</t>
+  </si>
+  <si>
+    <t xml:space="preserve">blxw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pastry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">weue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">heroine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">losh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">confuse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">crtuain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">riject</t>
+  </si>
+  <si>
+    <t xml:space="preserve">farm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aczreis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">duty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stpactin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cowtnet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">freedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">frugtry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cheat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exdlavstion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cloth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ocbohus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">buws</t>
+  </si>
+  <si>
+    <t xml:space="preserve">decide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mgstachi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">forest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">imhge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eyes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">disbhvmeve</t>
+  </si>
+  <si>
+    <t xml:space="preserve">destroy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mabapine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">environment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">busg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">caklqblower</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fashion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sastir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">failure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rntractr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tomer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">elephant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">blaokbonvd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">disagree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">povtecy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ktcheken</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cotton</t>
   </si>
 </sst>
 </file>
@@ -82,7 +640,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -103,7 +660,6 @@
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -174,10 +730,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="F6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A76" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B99" activeCellId="0" sqref="B99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -200,73 +756,1403 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="23.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="0" t="n">
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="23.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="23.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="23.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D37" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="23.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D41" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D42" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D43" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D44" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D45" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D46" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D47" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D48" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D49" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D50" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D51" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D52" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D53" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D54" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D55" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D56" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D57" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D58" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D59" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D60" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D61" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D62" s="1" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D63" s="1" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D64" s="1" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D65" s="1" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D66" s="1" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D67" s="1" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D68" s="1" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D69" s="1" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D70" s="1" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D71" s="1" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D72" s="1" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D73" s="1" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D74" s="1" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D75" s="1" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D76" s="1" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D77" s="1" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D78" s="1" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D79" s="1" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D80" s="1" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D81" s="1" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D82" s="1" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>3</v>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D83" s="1" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D84" s="1" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D85" s="1" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D86" s="1" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D87" s="1" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D88" s="1" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D89" s="1" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D90" s="1" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D91" s="1" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D92" s="1" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D93" s="1" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D94" s="1" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D95" s="1" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D96" s="1" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D97" s="1" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D98" s="1" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D99" s="1" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D100" s="1" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D101" s="1" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Assignment3/dataset/en_conditions.xlsx
+++ b/Assignment3/dataset/en_conditions.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="162">
   <si>
     <t xml:space="preserve">word1</t>
   </si>
@@ -355,48 +355,6 @@
     <t xml:space="preserve">berid</t>
   </si>
   <si>
-    <t xml:space="preserve">entehvain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bryccyli</t>
-  </si>
-  <si>
-    <t xml:space="preserve">angeatec</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hodker</t>
-  </si>
-  <si>
-    <t xml:space="preserve">suem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">builde</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rigaen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wuncir</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dvsagceeieni</t>
-  </si>
-  <si>
-    <t xml:space="preserve">turpit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">crlceet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chulk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">incuire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gway</t>
-  </si>
-  <si>
     <t xml:space="preserve">invent</t>
   </si>
   <si>
@@ -472,48 +430,6 @@
     <t xml:space="preserve">bygknner</t>
   </si>
   <si>
-    <t xml:space="preserve">separate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bext</t>
-  </si>
-  <si>
-    <t xml:space="preserve">deer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">blumi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cents</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rankep</t>
-  </si>
-  <si>
-    <t xml:space="preserve">finished</t>
-  </si>
-  <si>
-    <t xml:space="preserve">blxw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pastry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">weue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">heroine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">losh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">confuse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">crtuain</t>
-  </si>
-  <si>
     <t xml:space="preserve">riject</t>
   </si>
   <si>
@@ -590,42 +506,6 @@
   </si>
   <si>
     <t xml:space="preserve">fashion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sastir</t>
-  </si>
-  <si>
-    <t xml:space="preserve">failure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rntractr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tomer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">elephant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">blaokbonvd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">disagree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">povtecy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cup</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ktcheken</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cotton</t>
   </si>
 </sst>
 </file>
@@ -640,6 +520,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -660,6 +541,7 @@
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -730,10 +612,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D101"/>
+  <dimension ref="A1:D81"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A76" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B99" activeCellId="0" sqref="B99"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A58" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D68" activeCellId="0" sqref="D68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1508,7 +1390,7 @@
         <v>86</v>
       </c>
       <c r="D55" s="1" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1522,7 +1404,7 @@
         <v>86</v>
       </c>
       <c r="D56" s="1" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1536,7 +1418,7 @@
         <v>86</v>
       </c>
       <c r="D57" s="1" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1550,7 +1432,7 @@
         <v>86</v>
       </c>
       <c r="D58" s="1" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1564,7 +1446,7 @@
         <v>86</v>
       </c>
       <c r="D59" s="1" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1578,7 +1460,7 @@
         <v>86</v>
       </c>
       <c r="D60" s="1" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1592,15 +1474,15 @@
         <v>86</v>
       </c>
       <c r="D61" s="1" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B62" s="1" t="s">
         <v>125</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>126</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>86</v>
@@ -1611,10 +1493,10 @@
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B63" s="1" t="s">
         <v>127</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>128</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>86</v>
@@ -1625,10 +1507,10 @@
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B64" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>130</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>86</v>
@@ -1639,10 +1521,10 @@
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B65" s="1" t="s">
         <v>131</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>132</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>86</v>
@@ -1653,10 +1535,10 @@
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B66" s="1" t="s">
         <v>133</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>134</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>86</v>
@@ -1667,10 +1549,10 @@
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B67" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>136</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>86</v>
@@ -1681,21 +1563,21 @@
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B68" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B68" s="1" t="s">
-        <v>138</v>
-      </c>
       <c r="C68" s="1" t="s">
         <v>86</v>
       </c>
       <c r="D68" s="1" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>57</v>
+        <v>138</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>139</v>
@@ -1704,7 +1586,7 @@
         <v>86</v>
       </c>
       <c r="D69" s="1" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1718,7 +1600,7 @@
         <v>86</v>
       </c>
       <c r="D70" s="1" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1732,7 +1614,7 @@
         <v>86</v>
       </c>
       <c r="D71" s="1" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1746,7 +1628,7 @@
         <v>86</v>
       </c>
       <c r="D72" s="1" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1760,7 +1642,7 @@
         <v>86</v>
       </c>
       <c r="D73" s="1" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1768,390 +1650,110 @@
         <v>148</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>149</v>
+        <v>73</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>86</v>
       </c>
       <c r="D74" s="1" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B75" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B75" s="1" t="s">
-        <v>151</v>
-      </c>
       <c r="C75" s="1" t="s">
         <v>86</v>
       </c>
       <c r="D75" s="1" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B76" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B76" s="1" t="s">
-        <v>153</v>
-      </c>
       <c r="C76" s="1" t="s">
         <v>86</v>
       </c>
       <c r="D76" s="1" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B77" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B77" s="1" t="s">
-        <v>155</v>
-      </c>
       <c r="C77" s="1" t="s">
         <v>86</v>
       </c>
       <c r="D77" s="1" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B78" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B78" s="1" t="s">
-        <v>157</v>
-      </c>
       <c r="C78" s="1" t="s">
         <v>86</v>
       </c>
       <c r="D78" s="1" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B79" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B79" s="1" t="s">
-        <v>159</v>
-      </c>
       <c r="C79" s="1" t="s">
         <v>86</v>
       </c>
       <c r="D79" s="1" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>161</v>
+        <v>130</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>86</v>
       </c>
       <c r="D80" s="1" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>86</v>
       </c>
       <c r="D81" s="1" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D82" s="1" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D83" s="1" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D84" s="1" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D85" s="1" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D86" s="1" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D87" s="1" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D88" s="1" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D89" s="1" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D90" s="1" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D91" s="1" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D92" s="1" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D93" s="1" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D94" s="1" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D95" s="1" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D96" s="1" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D97" s="1" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D98" s="1" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D99" s="1" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D100" s="1" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D101" s="1" t="n">
         <v>4</v>
       </c>
     </row>
